--- a/word_TOEIC.xlsx
+++ b/word_TOEIC.xlsx
@@ -6407,11 +6407,11 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>struggle</v>
+        <v>retailer</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">VLOOKUP(A1,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>애쓰다, 발버둥 치다</v>
+        <v>소매상, 소매업자</v>
       </c>
       <c r="D1" t="s">
         <v>240</v>
@@ -6423,11 +6423,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>clinic</v>
+        <v>set aside</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(A2,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>진료소</v>
+        <v>확보하다, 챙겨놓다</v>
       </c>
       <c r="D2" t="s">
         <v>352</v>
@@ -6439,11 +6439,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>release</v>
+        <v>tenant</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">VLOOKUP(A3,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>양도하다, 놓아주다</v>
+        <v>세입자, 주민</v>
       </c>
       <c r="D3" t="s">
         <v>158</v>
@@ -6455,11 +6455,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>print</v>
+        <v>urgency</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">VLOOKUP(A4,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>게재하다, 인쇄하다</v>
+        <v>긴급함, 절박함</v>
       </c>
       <c r="D4" t="s">
         <v>346</v>
@@ -6471,11 +6471,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>demographic</v>
+        <v>lose weight</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">VLOOKUP(A5,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>인구의, 인구학의</v>
+        <v>체중을 감량하다</v>
       </c>
       <c r="D5" t="s">
         <v>303</v>
@@ -6487,11 +6487,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>acquirement</v>
+        <v>athletics</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">VLOOKUP(A6,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>취득, 획득</v>
+        <v>체육</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -6503,11 +6503,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>tuition fee</v>
+        <v>crop</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">VLOOKUP(A7,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>수업료</v>
+        <v>농작물</v>
       </c>
       <c r="D7" t="s">
         <v>450</v>
@@ -6519,11 +6519,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>traditional</v>
+        <v>stamina</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">VLOOKUP(A8,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>전통의</v>
+        <v>체력</v>
       </c>
       <c r="D8" t="s">
         <v>146</v>
@@ -6535,11 +6535,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>locate</v>
+        <v>historic site</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">VLOOKUP(A9,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>위치시키다</v>
+        <v>유적지</v>
       </c>
       <c r="D9" t="s">
         <v>414</v>
@@ -6551,11 +6551,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>blood circulation</v>
+        <v>in bulk</v>
       </c>
       <c r="B10" t="str">
         <f ca="1">VLOOKUP(A10,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>혈액 순환</v>
+        <v>대량으로</v>
       </c>
       <c r="D10" t="s">
         <v>156</v>
@@ -6567,11 +6567,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>affirm</v>
+        <v>public relations department</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">VLOOKUP(A11,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>단언하다</v>
+        <v>홍보부</v>
       </c>
       <c r="D11" t="s">
         <v>209</v>
@@ -6583,11 +6583,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>urgency</v>
+        <v>exempt</v>
       </c>
       <c r="B12" t="str">
         <f ca="1">VLOOKUP(A12,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>긴급함, 절박함</v>
+        <v>면제하다</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
@@ -6599,11 +6599,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>crop</v>
+        <v>adherence</v>
       </c>
       <c r="B13" t="str">
         <f ca="1">VLOOKUP(A13,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>농작물</v>
+        <v>충실, 고수</v>
       </c>
       <c r="D13" t="s">
         <v>310</v>
@@ -6615,11 +6615,11 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>house call</v>
+        <v>updated</v>
       </c>
       <c r="B14" t="str">
         <f ca="1">VLOOKUP(A14,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>가정 방문</v>
+        <v>최신의</v>
       </c>
       <c r="D14" t="s">
         <v>429</v>
@@ -6631,11 +6631,11 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>approach</v>
+        <v>bid</v>
       </c>
       <c r="B15" t="str">
         <f ca="1">VLOOKUP(A15,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>접근법, 다가오다</v>
+        <v>입찰, 값을매기다</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -6647,11 +6647,11 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>obtainent</v>
+        <v>lessen</v>
       </c>
       <c r="B16" t="str">
         <f ca="1">VLOOKUP(A16,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>입수, 획득</v>
+        <v>줄이다</v>
       </c>
       <c r="D16" t="s">
         <v>320</v>
@@ -6663,11 +6663,11 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>push</v>
+        <v>regular customer</v>
       </c>
       <c r="B17" t="str">
         <f ca="1">VLOOKUP(A17,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>노력하다, 떠밀다</v>
+        <v>단골 고객</v>
       </c>
       <c r="D17" t="s">
         <v>293</v>
@@ -6679,11 +6679,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>undetermined</v>
+        <v>express regret for</v>
       </c>
       <c r="B18" t="str">
         <f ca="1">VLOOKUP(A18,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>미확인의</v>
+        <v>~을 사과하다</v>
       </c>
       <c r="D18" t="s">
         <v>289</v>
@@ -6695,11 +6695,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>property</v>
+        <v>temporary</v>
       </c>
       <c r="B19" t="str">
         <f ca="1">VLOOKUP(A19,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>부동산, 재산</v>
+        <v>임시의, 일시적인</v>
       </c>
       <c r="D19" t="s">
         <v>118</v>
@@ -6711,11 +6711,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>reliable</v>
+        <v>version</v>
       </c>
       <c r="B20" t="str">
         <f ca="1">VLOOKUP(A20,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>믿을 만한</v>
+        <v>버전, 판</v>
       </c>
       <c r="D20" t="s">
         <v>211</v>
@@ -6727,11 +6727,11 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>recall</v>
+        <v>suggest</v>
       </c>
       <c r="B21" t="str">
         <f ca="1">VLOOKUP(A21,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>회수, 상기하다</v>
+        <v>암시하다, 시사하다</v>
       </c>
       <c r="D21" t="s">
         <v>74</v>
@@ -6743,11 +6743,11 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>cost</v>
+        <v>undertake</v>
       </c>
       <c r="B22" t="str">
         <f ca="1">VLOOKUP(A22,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>경비, 비용</v>
+        <v>착수하다</v>
       </c>
       <c r="D22" t="s">
         <v>300</v>
@@ -6759,11 +6759,11 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>commercial</v>
+        <v>compensation</v>
       </c>
       <c r="B23" t="str">
         <f ca="1">VLOOKUP(A23,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>광고 방송</v>
+        <v>보상, 배상</v>
       </c>
       <c r="D23" t="s">
         <v>127</v>
@@ -6775,11 +6775,11 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>invalid</v>
+        <v>witness</v>
       </c>
       <c r="B24" t="str">
         <f ca="1">VLOOKUP(A24,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>근거 없는, 무효한</v>
+        <v>직접 보다, 목격하다</v>
       </c>
       <c r="D24" t="s">
         <v>318</v>
@@ -6791,11 +6791,11 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>unreasonable</v>
+        <v>jury</v>
       </c>
       <c r="B25" t="str">
         <f ca="1">VLOOKUP(A25,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>불합리한</v>
+        <v>배심원</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
@@ -6807,11 +6807,11 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>research</v>
+        <v>affirm</v>
       </c>
       <c r="B26" t="str">
         <f ca="1">VLOOKUP(A26,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>연구</v>
+        <v>단언하다</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -6823,11 +6823,11 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>conduction</v>
+        <v>confidential</v>
       </c>
       <c r="B27" t="str">
         <f ca="1">VLOOKUP(A27,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>(전기나 열의) 전도</v>
+        <v>기밀의, 비밀의</v>
       </c>
       <c r="D27" t="s">
         <v>169</v>
@@ -6839,11 +6839,11 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>influence</v>
+        <v>traditional</v>
       </c>
       <c r="B28" t="str">
         <f ca="1">VLOOKUP(A28,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>영향을 주다</v>
+        <v>전통의</v>
       </c>
       <c r="D28" t="s">
         <v>129</v>
@@ -6855,11 +6855,11 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>manufacturer</v>
+        <v>submit</v>
       </c>
       <c r="B29" t="str">
         <f ca="1">VLOOKUP(A29,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제조 회사</v>
+        <v>제출하다</v>
       </c>
       <c r="D29" t="s">
         <v>448</v>
@@ -6871,11 +6871,11 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>breakdown</v>
+        <v>salaried</v>
       </c>
       <c r="B30" t="str">
         <f ca="1">VLOOKUP(A30,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>고장, 파손</v>
+        <v>봉급을 받는</v>
       </c>
       <c r="D30" t="s">
         <v>178</v>
@@ -6887,11 +6887,11 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>suggest</v>
+        <v>soar</v>
       </c>
       <c r="B31" t="str">
         <f ca="1">VLOOKUP(A31,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>암시하다, 시사하다</v>
+        <v>폭등하다, 날아오르다</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -6903,11 +6903,11 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>traditional</v>
+        <v>rural</v>
       </c>
       <c r="B32" t="str">
         <f ca="1">VLOOKUP(A32,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>전통의</v>
+        <v>지방의, 시골의</v>
       </c>
       <c r="D32" t="s">
         <v>383</v>
@@ -6919,11 +6919,11 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>locate</v>
+        <v>throughout the country</v>
       </c>
       <c r="B33" t="str">
         <f ca="1">VLOOKUP(A33,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>위치시키다</v>
+        <v>전국 각지의</v>
       </c>
       <c r="D33" t="s">
         <v>195</v>
@@ -6935,11 +6935,11 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>quality goods</v>
+        <v>pharmaceutical</v>
       </c>
       <c r="B34" t="str">
         <f ca="1">VLOOKUP(A34,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>우수한 제품, 우량품</v>
+        <v>제약</v>
       </c>
       <c r="D34" t="s">
         <v>137</v>
@@ -6951,11 +6951,11 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>occur</v>
+        <v>improved</v>
       </c>
       <c r="B35" t="str">
         <f ca="1">VLOOKUP(A35,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>발생하다</v>
+        <v>개선된</v>
       </c>
       <c r="D35" t="s">
         <v>221</v>
@@ -6967,11 +6967,11 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>exclude</v>
+        <v>sincere</v>
       </c>
       <c r="B36" t="str">
         <f ca="1">VLOOKUP(A36,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제외하다</v>
+        <v>진심의, 진실된</v>
       </c>
       <c r="D36" t="s">
         <v>114</v>
@@ -6983,11 +6983,11 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>supervision</v>
+        <v>accord</v>
       </c>
       <c r="B37" t="str">
         <f ca="1">VLOOKUP(A37,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>감독, 관리</v>
+        <v>주다, 수여하다</v>
       </c>
       <c r="D37" t="s">
         <v>454</v>
@@ -6999,11 +6999,11 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>adhere to</v>
+        <v>design</v>
       </c>
       <c r="B38" t="str">
         <f ca="1">VLOOKUP(A38,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~을 충실히 지키다</v>
+        <v>설계하다, 고안하다</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
@@ -7015,11 +7015,11 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>rural</v>
+        <v>vibration</v>
       </c>
       <c r="B39" t="str">
         <f ca="1">VLOOKUP(A39,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>지방의, 시골의</v>
+        <v>진동, 떨림</v>
       </c>
       <c r="D39" t="s">
         <v>342</v>
@@ -7031,11 +7031,11 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>public relations department</v>
+        <v>individualism</v>
       </c>
       <c r="B40" t="str">
         <f ca="1">VLOOKUP(A40,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>홍보부</v>
+        <v>개인주의</v>
       </c>
       <c r="D40" t="s">
         <v>398</v>
@@ -7047,11 +7047,11 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>discuss</v>
+        <v>store</v>
       </c>
       <c r="B41" t="str">
         <f ca="1">VLOOKUP(A41,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>논의하다</v>
+        <v>보관하다, 저장하다</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -7063,11 +7063,11 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>affect</v>
+        <v>adhere to</v>
       </c>
       <c r="B42" t="str">
         <f ca="1">VLOOKUP(A42,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>영향을 미치다</v>
+        <v>~을 충실히 지키다</v>
       </c>
       <c r="D42" t="s">
         <v>476</v>
@@ -7079,11 +7079,11 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>challenging</v>
+        <v>venue</v>
       </c>
       <c r="B43" t="str">
         <f ca="1">VLOOKUP(A43,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>힘든, 도전적인</v>
+        <v>(경기,회담 등의)장소</v>
       </c>
       <c r="D43" t="s">
         <v>307</v>
@@ -7095,11 +7095,11 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>be designed to</v>
+        <v>house call</v>
       </c>
       <c r="B44" t="str">
         <f ca="1">VLOOKUP(A44,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>고안되다, 제작되다</v>
+        <v>가정 방문</v>
       </c>
       <c r="D44" t="s">
         <v>76</v>
@@ -7111,11 +7111,11 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>instructive</v>
+        <v>glazed</v>
       </c>
       <c r="B45" t="str">
         <f ca="1">VLOOKUP(A45,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유익한, 교육적인</v>
+        <v>광택 있는</v>
       </c>
       <c r="D45" t="s">
         <v>330</v>
@@ -7127,11 +7127,11 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>investment</v>
+        <v>design</v>
       </c>
       <c r="B46" t="str">
         <f ca="1">VLOOKUP(A46,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>투자</v>
+        <v>설계하다, 고안하다</v>
       </c>
       <c r="D46" t="s">
         <v>443</v>
@@ -7143,11 +7143,11 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>finish</v>
+        <v>development</v>
       </c>
       <c r="B47" t="str">
         <f ca="1">VLOOKUP(A47,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>마감 칠</v>
+        <v>개발</v>
       </c>
       <c r="D47" t="s">
         <v>232</v>
@@ -7159,11 +7159,11 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>bookkeeper</v>
+        <v>code of conduct</v>
       </c>
       <c r="B48" t="str">
         <f ca="1">VLOOKUP(A48,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>회계 장부 담당자</v>
+        <v>행동 수칙</v>
       </c>
       <c r="D48" t="s">
         <v>480</v>
@@ -7175,11 +7175,11 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>soar</v>
+        <v>taste</v>
       </c>
       <c r="B49" t="str">
         <f ca="1">VLOOKUP(A49,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>폭등하다, 날아오르다</v>
+        <v>시음하다</v>
       </c>
       <c r="D49" t="s">
         <v>125</v>
@@ -7191,11 +7191,11 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>causative</v>
+        <v>invalid</v>
       </c>
       <c r="B50" t="str">
         <f ca="1">VLOOKUP(A50,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>야기시키는</v>
+        <v>근거 없는, 무효한</v>
       </c>
       <c r="D50" t="s">
         <v>436</v>
@@ -7207,11 +7207,11 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>supervision</v>
+        <v>affirm</v>
       </c>
       <c r="B51" t="str">
         <f ca="1">VLOOKUP(A51,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>감독, 관리</v>
+        <v>단언하다</v>
       </c>
       <c r="D51" t="s">
         <v>461</v>
@@ -7223,11 +7223,11 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>chef</v>
+        <v>metabolism</v>
       </c>
       <c r="B52" t="str">
         <f ca="1">VLOOKUP(A52,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>요리사</v>
+        <v>신진대사</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -7239,11 +7239,11 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>be subject to</v>
+        <v>postpone</v>
       </c>
       <c r="B53" t="str">
         <f ca="1">VLOOKUP(A53,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~의 대상이다</v>
+        <v>연기하다, 뒤로 미루다</v>
       </c>
       <c r="D53" t="s">
         <v>400</v>
@@ -7255,11 +7255,11 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>forthcoming</v>
+        <v>soil</v>
       </c>
       <c r="B54" t="str">
         <f ca="1">VLOOKUP(A54,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>곧 있을, 준비된</v>
+        <v>토양</v>
       </c>
       <c r="D54" t="s">
         <v>314</v>
@@ -7271,11 +7271,11 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>vibration</v>
+        <v>recruiter</v>
       </c>
       <c r="B55" t="str">
         <f ca="1">VLOOKUP(A55,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>진동, 떨림</v>
+        <v>인사 담당자</v>
       </c>
       <c r="D55" t="s">
         <v>142</v>
@@ -7287,11 +7287,11 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>raise</v>
+        <v>tax policy</v>
       </c>
       <c r="B56" t="str">
         <f ca="1">VLOOKUP(A56,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제기하다</v>
+        <v>조세 정책</v>
       </c>
       <c r="D56" t="s">
         <v>144</v>
@@ -7303,11 +7303,11 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>code of conduct</v>
+        <v>recruiter</v>
       </c>
       <c r="B57" t="str">
         <f ca="1">VLOOKUP(A57,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>행동 수칙</v>
+        <v>인사 담당자</v>
       </c>
       <c r="D57" t="s">
         <v>193</v>
@@ -7319,11 +7319,11 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>view</v>
+        <v>human resources</v>
       </c>
       <c r="B58" t="str">
         <f ca="1">VLOOKUP(A58,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>판단하다, 간주하다</v>
+        <v>인사부, 인적 자원</v>
       </c>
       <c r="D58" t="s">
         <v>186</v>
@@ -7335,11 +7335,11 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>subsidies</v>
+        <v>undisclosed</v>
       </c>
       <c r="B59" t="str">
         <f ca="1">VLOOKUP(A59,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>보조금</v>
+        <v>나타나지 않은</v>
       </c>
       <c r="D59" t="s">
         <v>275</v>
@@ -7351,11 +7351,11 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>raise</v>
+        <v>tenant</v>
       </c>
       <c r="B60" t="str">
         <f ca="1">VLOOKUP(A60,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제기하다</v>
+        <v>세입자, 주민</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -7367,11 +7367,11 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>account</v>
+        <v>work out</v>
       </c>
       <c r="B61" t="str">
         <f ca="1">VLOOKUP(A61,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>저서, 설명, 이야기</v>
+        <v>운동하다</v>
       </c>
       <c r="D61" t="s">
         <v>71</v>
@@ -7383,11 +7383,11 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>absorb</v>
+        <v>take shape</v>
       </c>
       <c r="B62" t="str">
         <f ca="1">VLOOKUP(A62,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>흡수하다</v>
+        <v>구체화하다</v>
       </c>
       <c r="D62" t="s">
         <v>218</v>
@@ -7399,11 +7399,11 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>dominate</v>
+        <v>density</v>
       </c>
       <c r="B63" t="str">
         <f ca="1">VLOOKUP(A63,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>우위를 차지하다</v>
+        <v>밀도</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -7415,11 +7415,11 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>affirm</v>
+        <v>fertilizer</v>
       </c>
       <c r="B64" t="str">
         <f ca="1">VLOOKUP(A64,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>단언하다</v>
+        <v>비료</v>
       </c>
       <c r="D64" t="s">
         <v>176</v>
@@ -7431,11 +7431,11 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>oversight</v>
+        <v>executives</v>
       </c>
       <c r="B65" t="str">
         <f ca="1">VLOOKUP(A65,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>착오, 실수</v>
+        <v>경영진, 실무자</v>
       </c>
       <c r="D65" t="s">
         <v>269</v>
@@ -7447,11 +7447,11 @@
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>order</v>
+        <v>suggestive</v>
       </c>
       <c r="B66" t="str">
         <f ca="1">VLOOKUP(A66,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>주문</v>
+        <v>~을 연상시키는</v>
       </c>
       <c r="D66" t="s">
         <v>256</v>
@@ -7463,11 +7463,11 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>executives</v>
+        <v>eligibility</v>
       </c>
       <c r="B67" t="str">
         <f ca="1">VLOOKUP(A67,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>경영진, 실무자</v>
+        <v>적격성</v>
       </c>
       <c r="D67" t="s">
         <v>90</v>
@@ -7479,11 +7479,11 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>broadcast</v>
+        <v>express regret for</v>
       </c>
       <c r="B68" t="str">
         <f ca="1">VLOOKUP(A68,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>방송, 방송하다</v>
+        <v>~을 사과하다</v>
       </c>
       <c r="D68" t="s">
         <v>165</v>
@@ -7495,11 +7495,11 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>outcome</v>
+        <v>planned</v>
       </c>
       <c r="B69" t="str">
         <f ca="1">VLOOKUP(A69,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>성과, 결과</v>
+        <v>계획된</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
@@ -7511,11 +7511,11 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>cost</v>
+        <v>claim</v>
       </c>
       <c r="B70" t="str">
         <f ca="1">VLOOKUP(A70,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>경비, 비용</v>
+        <v>요청하다</v>
       </c>
       <c r="D70" t="s">
         <v>279</v>
@@ -7527,11 +7527,11 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>go ahead</v>
+        <v>relic</v>
       </c>
       <c r="B71" t="str">
         <f ca="1">VLOOKUP(A71,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>진행 시키다</v>
+        <v>유물, 유적</v>
       </c>
       <c r="D71" t="s">
         <v>286</v>
@@ -7543,11 +7543,11 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>sanitation</v>
+        <v>submit</v>
       </c>
       <c r="B72" t="str">
         <f ca="1">VLOOKUP(A72,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>위생 관리, 공중위생</v>
+        <v>제출하다</v>
       </c>
       <c r="D72" t="s">
         <v>206</v>
@@ -7559,11 +7559,11 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>discuss</v>
+        <v>motivate</v>
       </c>
       <c r="B73" t="str">
         <f ca="1">VLOOKUP(A73,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>논의하다</v>
+        <v>동기를 부여하다</v>
       </c>
       <c r="D73" t="s">
         <v>50</v>
@@ -7575,11 +7575,11 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>affected</v>
+        <v>work</v>
       </c>
       <c r="B74" t="str">
         <f ca="1">VLOOKUP(A74,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>영향을 받은</v>
+        <v>일, 수고</v>
       </c>
       <c r="D74" t="s">
         <v>236</v>
@@ -7591,11 +7591,11 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>form</v>
+        <v>adherence</v>
       </c>
       <c r="B75" t="str">
         <f ca="1">VLOOKUP(A75,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>구성하다</v>
+        <v>충실, 고수</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
@@ -7607,11 +7607,11 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>motivate</v>
+        <v>go ahead</v>
       </c>
       <c r="B76" t="str">
         <f ca="1">VLOOKUP(A76,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>동기를 부여하다</v>
+        <v>진행 시키다</v>
       </c>
       <c r="D76" t="s">
         <v>234</v>
@@ -7623,11 +7623,11 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>overhaul</v>
+        <v>chef</v>
       </c>
       <c r="B77" t="str">
         <f ca="1">VLOOKUP(A77,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>점검하다</v>
+        <v>요리사</v>
       </c>
       <c r="D77" t="s">
         <v>84</v>
@@ -7639,11 +7639,11 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>pharmaceutical</v>
+        <v>studio</v>
       </c>
       <c r="B78" t="str">
         <f ca="1">VLOOKUP(A78,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제약</v>
+        <v>영화사</v>
       </c>
       <c r="D78" t="s">
         <v>339</v>
@@ -7655,11 +7655,11 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>regular customer</v>
+        <v>association</v>
       </c>
       <c r="B79" t="str">
         <f ca="1">VLOOKUP(A79,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>단골 고객</v>
+        <v>협회</v>
       </c>
       <c r="D79" t="s">
         <v>363</v>
@@ -7671,11 +7671,11 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>interaction</v>
+        <v>enclose</v>
       </c>
       <c r="B80" t="str">
         <f ca="1">VLOOKUP(A80,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>상호 작용</v>
+        <v>동봉하다</v>
       </c>
       <c r="D80" t="s">
         <v>162</v>
@@ -7687,11 +7687,11 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take shape</v>
+        <v>commercial</v>
       </c>
       <c r="B81" t="str">
         <f ca="1">VLOOKUP(A81,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>구체화하다</v>
+        <v>광고 방송</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -7703,11 +7703,11 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>recruiter</v>
+        <v>chef</v>
       </c>
       <c r="B82" t="str">
         <f ca="1">VLOOKUP(A82,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>인사 담당자</v>
+        <v>요리사</v>
       </c>
       <c r="D82" t="s">
         <v>30</v>
@@ -7719,11 +7719,11 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>undetermined</v>
+        <v>blood circulation</v>
       </c>
       <c r="B83" t="str">
         <f ca="1">VLOOKUP(A83,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>미확인의</v>
+        <v>혈액 순환</v>
       </c>
       <c r="D83" t="s">
         <v>373</v>
@@ -7735,11 +7735,11 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>documentation</v>
+        <v>motivate</v>
       </c>
       <c r="B84" t="str">
         <f ca="1">VLOOKUP(A84,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>문서화, 서류</v>
+        <v>동기를 부여하다</v>
       </c>
       <c r="D84" t="s">
         <v>174</v>
@@ -7751,11 +7751,11 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>give away</v>
+        <v>raise</v>
       </c>
       <c r="B85" t="str">
         <f ca="1">VLOOKUP(A85,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>나눠주다</v>
+        <v>제기하다</v>
       </c>
       <c r="D85" t="s">
         <v>96</v>
@@ -7767,11 +7767,11 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>struggle</v>
+        <v>athletics</v>
       </c>
       <c r="B86" t="str">
         <f ca="1">VLOOKUP(A86,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>애쓰다, 발버둥 치다</v>
+        <v>체육</v>
       </c>
       <c r="D86" t="s">
         <v>48</v>
@@ -7783,11 +7783,11 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>top</v>
+        <v>relic</v>
       </c>
       <c r="B87" t="str">
         <f ca="1">VLOOKUP(A87,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>1위를 하다, 더 높다</v>
+        <v>유물, 유적</v>
       </c>
       <c r="D87" t="s">
         <v>43</v>
@@ -7799,11 +7799,11 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>aid</v>
+        <v>undetermined</v>
       </c>
       <c r="B88" t="str">
         <f ca="1">VLOOKUP(A88,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>도와주다</v>
+        <v>미확인의</v>
       </c>
       <c r="D88" t="s">
         <v>263</v>
@@ -7815,11 +7815,11 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>bookkeeper</v>
+        <v>negatively</v>
       </c>
       <c r="B89" t="str">
         <f ca="1">VLOOKUP(A89,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>회계 장부 담당자</v>
+        <v>부정적으로</v>
       </c>
       <c r="D89" t="s">
         <v>365</v>
@@ -7831,11 +7831,11 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>in response to</v>
+        <v>exclude</v>
       </c>
       <c r="B90" t="str">
         <f ca="1">VLOOKUP(A90,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~에 대응하여</v>
+        <v>제외하다</v>
       </c>
       <c r="D90" t="s">
         <v>133</v>
@@ -7847,11 +7847,11 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>top</v>
+        <v>council</v>
       </c>
       <c r="B91" t="str">
         <f ca="1">VLOOKUP(A91,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>1위를 하다, 더 높다</v>
+        <v>위원회, 의회</v>
       </c>
       <c r="D91" t="s">
         <v>160</v>
@@ -7863,11 +7863,11 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>taste</v>
+        <v>deliver</v>
       </c>
       <c r="B92" t="str">
         <f ca="1">VLOOKUP(A92,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>시음하다</v>
+        <v>전달하다</v>
       </c>
       <c r="D92" t="s">
         <v>359</v>
@@ -7879,11 +7879,11 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>reiterate</v>
+        <v>interaction</v>
       </c>
       <c r="B93" t="str">
         <f ca="1">VLOOKUP(A93,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>되풀이하다</v>
+        <v>상호 작용</v>
       </c>
       <c r="D93" t="s">
         <v>405</v>
@@ -7895,11 +7895,11 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>issue</v>
+        <v>human resources</v>
       </c>
       <c r="B94" t="str">
         <f ca="1">VLOOKUP(A94,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>발행물, 쟁점</v>
+        <v>인사부, 인적 자원</v>
       </c>
       <c r="D94" t="s">
         <v>254</v>
@@ -7911,11 +7911,11 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>retailer</v>
+        <v>finish</v>
       </c>
       <c r="B95" t="str">
         <f ca="1">VLOOKUP(A95,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>소매상, 소매업자</v>
+        <v>마감 칠</v>
       </c>
       <c r="D95" t="s">
         <v>191</v>
@@ -7927,11 +7927,11 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>store</v>
+        <v>forfeit</v>
       </c>
       <c r="B96" t="str">
         <f ca="1">VLOOKUP(A96,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>보관하다, 저장하다</v>
+        <v>취소당하다, 박탈당하다</v>
       </c>
       <c r="D96" t="s">
         <v>324</v>
@@ -7943,11 +7943,11 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>give away</v>
+        <v>due</v>
       </c>
       <c r="B97" t="str">
         <f ca="1">VLOOKUP(A97,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>나눠주다</v>
+        <v>기한인, ~할 예정인</v>
       </c>
       <c r="D97" t="s">
         <v>123</v>
@@ -7959,11 +7959,11 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>record</v>
+        <v>struggling</v>
       </c>
       <c r="B98" t="str">
         <f ca="1">VLOOKUP(A98,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>이력, 경력</v>
+        <v>분투하는, 기를 쓰는</v>
       </c>
       <c r="D98" t="s">
         <v>60</v>
@@ -7975,11 +7975,11 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>forfeit</v>
+        <v>reasonable</v>
       </c>
       <c r="B99" t="str">
         <f ca="1">VLOOKUP(A99,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>취소당하다, 박탈당하다</v>
+        <v>적정한</v>
       </c>
       <c r="D99" t="s">
         <v>81</v>
@@ -7991,11 +7991,11 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>finish</v>
+        <v>recruiter</v>
       </c>
       <c r="B100" t="str">
         <f ca="1">VLOOKUP(A100,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>마감 칠</v>
+        <v>인사 담당자</v>
       </c>
       <c r="D100" t="s">
         <v>356</v>
@@ -8007,11 +8007,11 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>standout</v>
+        <v>correction</v>
       </c>
       <c r="B101" t="str">
         <f ca="1">VLOOKUP(A101,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>뛰어난 사람</v>
+        <v>정정한 것</v>
       </c>
       <c r="D101" t="s">
         <v>110</v>
@@ -8023,11 +8023,11 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>outcome</v>
+        <v>lose weight</v>
       </c>
       <c r="B102" t="str">
         <f ca="1">VLOOKUP(A102,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>성과, 결과</v>
+        <v>체중을 감량하다</v>
       </c>
       <c r="D102" t="s">
         <v>412</v>
@@ -8039,11 +8039,11 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>human resources</v>
+        <v>marginal</v>
       </c>
       <c r="B103" t="str">
         <f ca="1">VLOOKUP(A103,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>인사부, 인적 자원</v>
+        <v>최저의, 한계의</v>
       </c>
       <c r="D103" t="s">
         <v>247</v>
@@ -8055,11 +8055,11 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>blackout</v>
+        <v>the number of</v>
       </c>
       <c r="B104" t="str">
         <f ca="1">VLOOKUP(A104,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>정전</v>
+        <v>~의 수</v>
       </c>
       <c r="D104" t="s">
         <v>188</v>
@@ -8071,11 +8071,11 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>adherence</v>
+        <v>keep abreast of</v>
       </c>
       <c r="B105" t="str">
         <f ca="1">VLOOKUP(A105,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>충실, 고수</v>
+        <v>~의 정보를 계속 접하다</v>
       </c>
       <c r="D105" t="s">
         <v>23</v>
@@ -8087,11 +8087,11 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>generate</v>
+        <v>grade point average</v>
       </c>
       <c r="B106" t="str">
         <f ca="1">VLOOKUP(A106,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>자아내다, 발생시키다</v>
+        <v>평균 평점(GPA)</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -8103,11 +8103,11 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take A into consideration</v>
+        <v>collapse</v>
       </c>
       <c r="B107" t="str">
         <f ca="1">VLOOKUP(A107,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>A를 고려하다</v>
+        <v>실패, 무너지다</v>
       </c>
       <c r="D107" t="s">
         <v>348</v>
@@ -8119,11 +8119,11 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>causative</v>
+        <v>objective</v>
       </c>
       <c r="B108" t="str">
         <f ca="1">VLOOKUP(A108,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>야기시키는</v>
+        <v>목표, 목적</v>
       </c>
       <c r="D108" t="s">
         <v>478</v>
@@ -8135,11 +8135,11 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>particularly</v>
+        <v>difficulties</v>
       </c>
       <c r="B109" t="str">
         <f ca="1">VLOOKUP(A109,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>특히, 특별히</v>
+        <v>곤란, 말썽</v>
       </c>
       <c r="D109" t="s">
         <v>471</v>
@@ -8151,11 +8151,11 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>collapse</v>
+        <v>clinic</v>
       </c>
       <c r="B110" t="str">
         <f ca="1">VLOOKUP(A110,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>실패, 무너지다</v>
+        <v>진료소</v>
       </c>
       <c r="D110" t="s">
         <v>376</v>
@@ -8167,11 +8167,11 @@
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>traditional</v>
+        <v>recruit</v>
       </c>
       <c r="B111" t="str">
         <f ca="1">VLOOKUP(A111,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>전통의</v>
+        <v>모집하다</v>
       </c>
       <c r="D111" t="s">
         <v>34</v>
@@ -8183,11 +8183,11 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>view</v>
+        <v>improved</v>
       </c>
       <c r="B112" t="str">
         <f ca="1">VLOOKUP(A112,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>판단하다, 간주하다</v>
+        <v>개선된</v>
       </c>
       <c r="D112" t="s">
         <v>78</v>
@@ -8199,11 +8199,11 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>list</v>
+        <v>restore</v>
       </c>
       <c r="B113" t="str">
         <f ca="1">VLOOKUP(A113,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>목록</v>
+        <v>복구하다, 복원하다</v>
       </c>
       <c r="D113" t="s">
         <v>332</v>
@@ -8215,11 +8215,11 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>summons</v>
+        <v>investment</v>
       </c>
       <c r="B114" t="str">
         <f ca="1">VLOOKUP(A114,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>소환, 호출</v>
+        <v>투자</v>
       </c>
       <c r="D114" t="s">
         <v>261</v>
@@ -8231,11 +8231,11 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>bookkeeper</v>
+        <v>forfeit</v>
       </c>
       <c r="B115" t="str">
         <f ca="1">VLOOKUP(A115,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>회계 장부 담당자</v>
+        <v>취소당하다, 박탈당하다</v>
       </c>
       <c r="D115" t="s">
         <v>32</v>
@@ -8247,11 +8247,11 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>council</v>
+        <v>mandatory</v>
       </c>
       <c r="B116" t="str">
         <f ca="1">VLOOKUP(A116,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>위원회, 의회</v>
+        <v>필수의, 의무의</v>
       </c>
       <c r="D116" t="s">
         <v>58</v>
@@ -8263,11 +8263,11 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>finish</v>
+        <v>landfill</v>
       </c>
       <c r="B117" t="str">
         <f ca="1">VLOOKUP(A117,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>마감 칠</v>
+        <v>쓰레기 매립지</v>
       </c>
       <c r="D117" t="s">
         <v>259</v>
@@ -8279,11 +8279,11 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>version</v>
+        <v>incompatibility</v>
       </c>
       <c r="B118" t="str">
         <f ca="1">VLOOKUP(A118,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>버전, 판</v>
+        <v>호환성이 없음</v>
       </c>
       <c r="D118" t="s">
         <v>438</v>
@@ -8295,11 +8295,11 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>supervision</v>
+        <v>tuition fee</v>
       </c>
       <c r="B119" t="str">
         <f ca="1">VLOOKUP(A119,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>감독, 관리</v>
+        <v>수업료</v>
       </c>
       <c r="D119" t="s">
         <v>316</v>
@@ -8311,11 +8311,11 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>lodging</v>
+        <v>grade point average</v>
       </c>
       <c r="B120" t="str">
         <f ca="1">VLOOKUP(A120,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>숙박, 하숙</v>
+        <v>평균 평점(GPA)</v>
       </c>
       <c r="D120" t="s">
         <v>305</v>
@@ -8327,11 +8327,11 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take steps</v>
+        <v>trust</v>
       </c>
       <c r="B121" t="str">
         <f ca="1">VLOOKUP(A121,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>조치를 취하다</v>
+        <v>신탁, 신뢰하다</v>
       </c>
       <c r="D121" t="s">
         <v>335</v>
@@ -8343,11 +8343,11 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take A into consideration</v>
+        <v>precaution</v>
       </c>
       <c r="B122" t="str">
         <f ca="1">VLOOKUP(A122,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>A를 고려하다</v>
+        <v>예방 조치</v>
       </c>
       <c r="D122" t="s">
         <v>445</v>
@@ -8375,11 +8375,11 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>reiterate</v>
+        <v>trust</v>
       </c>
       <c r="B124" t="str">
         <f ca="1">VLOOKUP(A124,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>되풀이하다</v>
+        <v>신탁, 신뢰하다</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
@@ -8391,11 +8391,11 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>influence</v>
+        <v>membership</v>
       </c>
       <c r="B125" t="str">
         <f ca="1">VLOOKUP(A125,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>영향을 주다</v>
+        <v>회원</v>
       </c>
       <c r="D125" t="s">
         <v>327</v>
@@ -8407,11 +8407,11 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>interval</v>
+        <v>shutdown</v>
       </c>
       <c r="B126" t="str">
         <f ca="1">VLOOKUP(A126,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>간격</v>
+        <v>휴업, 폐업</v>
       </c>
       <c r="D126" t="s">
         <v>63</v>
@@ -8423,11 +8423,11 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>present</v>
+        <v>studio</v>
       </c>
       <c r="B127" t="str">
         <f ca="1">VLOOKUP(A127,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>참석하다</v>
+        <v>영화사</v>
       </c>
       <c r="D127" t="s">
         <v>88</v>
@@ -8439,11 +8439,11 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>elevate</v>
+        <v>struggle</v>
       </c>
       <c r="B128" t="str">
         <f ca="1">VLOOKUP(A128,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>높이다</v>
+        <v>애쓰다, 발버둥 치다</v>
       </c>
       <c r="D128" t="s">
         <v>228</v>
@@ -8455,11 +8455,11 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>tuition fee</v>
+        <v>restore</v>
       </c>
       <c r="B129" t="str">
         <f ca="1">VLOOKUP(A129,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>수업료</v>
+        <v>복구하다, 복원하다</v>
       </c>
       <c r="D129" t="s">
         <v>98</v>
@@ -8471,11 +8471,11 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>surcharge</v>
+        <v>presentation</v>
       </c>
       <c r="B130" t="str">
         <f ca="1">VLOOKUP(A130,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>추가 요금</v>
+        <v>발표</v>
       </c>
       <c r="D130" t="s">
         <v>361</v>
@@ -8487,11 +8487,11 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>regard</v>
+        <v>fledgling</v>
       </c>
       <c r="B131" t="str">
         <f ca="1">VLOOKUP(A131,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~을 ~으로 여기다</v>
+        <v>신생의, 미숙한</v>
       </c>
       <c r="D131" t="s">
         <v>452</v>
@@ -8503,11 +8503,11 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>association</v>
+        <v>stamina</v>
       </c>
       <c r="B132" t="str">
         <f ca="1">VLOOKUP(A132,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>협회</v>
+        <v>체력</v>
       </c>
       <c r="D132" t="s">
         <v>252</v>
@@ -8519,11 +8519,11 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>confidential</v>
+        <v>broadcast</v>
       </c>
       <c r="B133" t="str">
         <f ca="1">VLOOKUP(A133,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>기밀의, 비밀의</v>
+        <v>방송, 방송하다</v>
       </c>
       <c r="D133" t="s">
         <v>242</v>
@@ -8535,11 +8535,11 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>insist</v>
+        <v>sanitation</v>
       </c>
       <c r="B134" t="str">
         <f ca="1">VLOOKUP(A134,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>강조하다, 주장하다</v>
+        <v>위생 관리, 공중위생</v>
       </c>
       <c r="D134" t="s">
         <v>390</v>
@@ -8551,11 +8551,11 @@
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>form</v>
+        <v>particularly</v>
       </c>
       <c r="B135" t="str">
         <f ca="1">VLOOKUP(A135,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>구성하다</v>
+        <v>특히, 특별히</v>
       </c>
       <c r="D135" t="s">
         <v>112</v>
@@ -8567,11 +8567,11 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>proposed</v>
+        <v>density</v>
       </c>
       <c r="B136" t="str">
         <f ca="1">VLOOKUP(A136,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제안된</v>
+        <v>밀도</v>
       </c>
       <c r="D136" t="s">
         <v>322</v>
@@ -8583,11 +8583,11 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>particularly</v>
+        <v>critic</v>
       </c>
       <c r="B137" t="str">
         <f ca="1">VLOOKUP(A137,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>특히, 특별히</v>
+        <v>평론가, 비평가</v>
       </c>
       <c r="D137" t="s">
         <v>434</v>
@@ -8599,11 +8599,11 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>salaried</v>
+        <v>breakdown</v>
       </c>
       <c r="B138" t="str">
         <f ca="1">VLOOKUP(A138,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>봉급을 받는</v>
+        <v>고장, 파손</v>
       </c>
       <c r="D138" t="s">
         <v>312</v>
@@ -8615,11 +8615,11 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>accord</v>
+        <v>consumer spending</v>
       </c>
       <c r="B139" t="str">
         <f ca="1">VLOOKUP(A139,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>주다, 수여하다</v>
+        <v>소비자 지출</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
@@ -8631,11 +8631,11 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take A into consideration</v>
+        <v>hundreds of</v>
       </c>
       <c r="B140" t="str">
         <f ca="1">VLOOKUP(A140,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>A를 고려하다</v>
+        <v>수백의</v>
       </c>
       <c r="D140" t="s">
         <v>418</v>
@@ -8647,11 +8647,11 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>rely on</v>
+        <v>over-the-counter</v>
       </c>
       <c r="B141" t="str">
         <f ca="1">VLOOKUP(A141,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~에 의지하다</v>
+        <v>처방전 없이 살 수 있는</v>
       </c>
       <c r="D141" t="s">
         <v>182</v>
@@ -8663,11 +8663,11 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>aid</v>
+        <v>archeological</v>
       </c>
       <c r="B142" t="str">
         <f ca="1">VLOOKUP(A142,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>도와주다</v>
+        <v>고고학의</v>
       </c>
       <c r="D142" t="s">
         <v>149</v>
@@ -8679,11 +8679,11 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>invalid</v>
+        <v>undisclosed</v>
       </c>
       <c r="B143" t="str">
         <f ca="1">VLOOKUP(A143,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>근거 없는, 무효한</v>
+        <v>나타나지 않은</v>
       </c>
       <c r="D143" t="s">
         <v>180</v>
@@ -8695,11 +8695,11 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>version</v>
+        <v>landfill</v>
       </c>
       <c r="B144" t="str">
         <f ca="1">VLOOKUP(A144,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>버전, 판</v>
+        <v>쓰레기 매립지</v>
       </c>
       <c r="D144" t="s">
         <v>21</v>
@@ -8711,11 +8711,11 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>marginal</v>
+        <v>taste</v>
       </c>
       <c r="B145" t="str">
         <f ca="1">VLOOKUP(A145,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>최저의, 한계의</v>
+        <v>시음하다</v>
       </c>
       <c r="D145" t="s">
         <v>291</v>
@@ -8727,11 +8727,11 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>a series of</v>
+        <v>give away</v>
       </c>
       <c r="B146" t="str">
         <f ca="1">VLOOKUP(A146,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>일련의</v>
+        <v>나눠주다</v>
       </c>
       <c r="D146" t="s">
         <v>463</v>
@@ -8743,11 +8743,11 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>negatively</v>
+        <v>view</v>
       </c>
       <c r="B147" t="str">
         <f ca="1">VLOOKUP(A147,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>부정적으로</v>
+        <v>판단하다, 간주하다</v>
       </c>
       <c r="D147" t="s">
         <v>458</v>
@@ -8759,11 +8759,11 @@
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>adherence</v>
+        <v>jury</v>
       </c>
       <c r="B148" t="str">
         <f ca="1">VLOOKUP(A148,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>충실, 고수</v>
+        <v>배심원</v>
       </c>
       <c r="D148" t="s">
         <v>135</v>
@@ -8775,11 +8775,11 @@
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>environment</v>
+        <v>property</v>
       </c>
       <c r="B149" t="str">
         <f ca="1">VLOOKUP(A149,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>환경</v>
+        <v>부동산, 재산</v>
       </c>
       <c r="D149" t="s">
         <v>151</v>
@@ -8791,11 +8791,11 @@
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>make it a point to do</v>
+        <v>renowned</v>
       </c>
       <c r="B150" t="str">
         <f ca="1">VLOOKUP(A150,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>반드시 ~하다</v>
+        <v>유명한, 명성 있는</v>
       </c>
       <c r="D150" t="s">
         <v>395</v>
@@ -8807,11 +8807,11 @@
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>metabolism</v>
+        <v>recruit</v>
       </c>
       <c r="B151" t="str">
         <f ca="1">VLOOKUP(A151,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>신진대사</v>
+        <v>모집하다</v>
       </c>
       <c r="D151" t="s">
         <v>153</v>
@@ -8823,11 +8823,11 @@
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>relic</v>
+        <v>witness</v>
       </c>
       <c r="B152" t="str">
         <f ca="1">VLOOKUP(A152,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유물, 유적</v>
+        <v>직접 보다, 목격하다</v>
       </c>
       <c r="D152" t="s">
         <v>19</v>
@@ -8839,11 +8839,11 @@
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>submit</v>
+        <v>updated</v>
       </c>
       <c r="B153" t="str">
         <f ca="1">VLOOKUP(A153,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제출하다</v>
+        <v>최신의</v>
       </c>
       <c r="D153" t="s">
         <v>388</v>
@@ -8855,11 +8855,11 @@
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>garment</v>
+        <v>renovate</v>
       </c>
       <c r="B154" t="str">
         <f ca="1">VLOOKUP(A154,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>의복, 옷</v>
+        <v>수리하다</v>
       </c>
       <c r="D154" t="s">
         <v>407</v>
@@ -8871,11 +8871,11 @@
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>presentation</v>
+        <v>overhaul</v>
       </c>
       <c r="B155" t="str">
         <f ca="1">VLOOKUP(A155,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>발표</v>
+        <v>점검하다</v>
       </c>
       <c r="D155" t="s">
         <v>249</v>
@@ -8887,11 +8887,11 @@
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>favorable</v>
+        <v>account</v>
       </c>
       <c r="B156" t="str">
         <f ca="1">VLOOKUP(A156,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>좋은, 호의적인</v>
+        <v>저서, 설명, 이야기</v>
       </c>
       <c r="D156" t="s">
         <v>197</v>
@@ -8903,11 +8903,11 @@
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>release</v>
+        <v>multinational</v>
       </c>
       <c r="B157" t="str">
         <f ca="1">VLOOKUP(A157,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>양도하다, 놓아주다</v>
+        <v>다국적의</v>
       </c>
       <c r="D157" t="s">
         <v>467</v>
@@ -8919,11 +8919,11 @@
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>finish</v>
+        <v>keen</v>
       </c>
       <c r="B158" t="str">
         <f ca="1">VLOOKUP(A158,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>마감 칠</v>
+        <v>예리한</v>
       </c>
       <c r="D158" t="s">
         <v>426</v>
@@ -8935,11 +8935,11 @@
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>documentation</v>
+        <v>conduction</v>
       </c>
       <c r="B159" t="str">
         <f ca="1">VLOOKUP(A159,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>문서화, 서류</v>
+        <v>(전기나 열의) 전도</v>
       </c>
       <c r="D159" t="s">
         <v>213</v>
@@ -8951,11 +8951,11 @@
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>crop</v>
+        <v>improved</v>
       </c>
       <c r="B160" t="str">
         <f ca="1">VLOOKUP(A160,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>농작물</v>
+        <v>개선된</v>
       </c>
       <c r="D160" t="s">
         <v>86</v>
@@ -8967,11 +8967,11 @@
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>reliable</v>
+        <v>therapeutic</v>
       </c>
       <c r="B161" t="str">
         <f ca="1">VLOOKUP(A161,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>믿을 만한</v>
+        <v>치료상의</v>
       </c>
       <c r="D161" t="s">
         <v>380</v>
@@ -8983,11 +8983,11 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>supervision</v>
+        <v>sincere</v>
       </c>
       <c r="B162" t="str">
         <f ca="1">VLOOKUP(A162,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>감독, 관리</v>
+        <v>진심의, 진실된</v>
       </c>
       <c r="D162" t="s">
         <v>108</v>
@@ -8999,11 +8999,11 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>be subject to</v>
+        <v>epidemic</v>
       </c>
       <c r="B163" t="str">
         <f ca="1">VLOOKUP(A163,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~의 대상이다</v>
+        <v>유행, 전염병</v>
       </c>
       <c r="D163" t="s">
         <v>93</v>
@@ -9015,11 +9015,11 @@
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>retailer</v>
+        <v>soar</v>
       </c>
       <c r="B164" t="str">
         <f ca="1">VLOOKUP(A164,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>소매상, 소매업자</v>
+        <v>폭등하다, 날아오르다</v>
       </c>
       <c r="D164" t="s">
         <v>121</v>
@@ -9031,11 +9031,11 @@
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>rate</v>
+        <v>generate</v>
       </c>
       <c r="B165" t="str">
         <f ca="1">VLOOKUP(A165,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>평가하다</v>
+        <v>자아내다, 발생시키다</v>
       </c>
       <c r="D165" t="s">
         <v>223</v>
@@ -9047,11 +9047,11 @@
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>incur</v>
+        <v>operating expense</v>
       </c>
       <c r="B166" t="str">
         <f ca="1">VLOOKUP(A166,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>초래하다</v>
+        <v>운영비</v>
       </c>
       <c r="D166" t="s">
         <v>297</v>
@@ -9063,11 +9063,11 @@
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>acquirement</v>
+        <v>redemption</v>
       </c>
       <c r="B167" t="str">
         <f ca="1">VLOOKUP(A167,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>취득, 획득</v>
+        <v>구함, 현금화</v>
       </c>
       <c r="D167" t="s">
         <v>204</v>
@@ -9079,11 +9079,11 @@
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>renovate</v>
+        <v>over-the-counter</v>
       </c>
       <c r="B168" t="str">
         <f ca="1">VLOOKUP(A168,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>수리하다</v>
+        <v>처방전 없이 살 수 있는</v>
       </c>
       <c r="D168" t="s">
         <v>416</v>
@@ -9095,11 +9095,11 @@
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>interval</v>
+        <v>reiterate</v>
       </c>
       <c r="B169" t="str">
         <f ca="1">VLOOKUP(A169,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>간격</v>
+        <v>되풀이하다</v>
       </c>
       <c r="D169" t="s">
         <v>421</v>
@@ -9111,11 +9111,11 @@
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>based in</v>
+        <v>forfeit</v>
       </c>
       <c r="B170" t="str">
         <f ca="1">VLOOKUP(A170,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~에 기반을 둔</v>
+        <v>취소당하다, 박탈당하다</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
@@ -9127,11 +9127,11 @@
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>bookkeeper</v>
+        <v>tax policy</v>
       </c>
       <c r="B171" t="str">
         <f ca="1">VLOOKUP(A171,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>회계 장부 담당자</v>
+        <v>조세 정책</v>
       </c>
       <c r="D171" t="s">
         <v>282</v>
@@ -9143,11 +9143,11 @@
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>lose weight</v>
+        <v>streamline</v>
       </c>
       <c r="B172" t="str">
         <f ca="1">VLOOKUP(A172,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>체중을 감량하다</v>
+        <v>능률화하다</v>
       </c>
       <c r="D172" t="s">
         <v>105</v>
@@ -9159,11 +9159,11 @@
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>approach</v>
+        <v>wage</v>
       </c>
       <c r="B173" t="str">
         <f ca="1">VLOOKUP(A173,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>접근법, 다가오다</v>
+        <v>급여, 임금</v>
       </c>
       <c r="D173" t="s">
         <v>202</v>
@@ -9175,11 +9175,11 @@
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>statistical</v>
+        <v>code of conduct</v>
       </c>
       <c r="B174" t="str">
         <f ca="1">VLOOKUP(A174,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>통계의</v>
+        <v>행동 수칙</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
@@ -9191,11 +9191,11 @@
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>submit</v>
+        <v>international</v>
       </c>
       <c r="B175" t="str">
         <f ca="1">VLOOKUP(A175,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제출하다</v>
+        <v>국제적인</v>
       </c>
       <c r="D175" t="s">
         <v>230</v>
@@ -9207,11 +9207,11 @@
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>struggle</v>
+        <v>record</v>
       </c>
       <c r="B176" t="str">
         <f ca="1">VLOOKUP(A176,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>애쓰다, 발버둥 치다</v>
+        <v>이력, 경력</v>
       </c>
       <c r="D176" t="s">
         <v>36</v>
@@ -9223,11 +9223,11 @@
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>competitor</v>
+        <v>subsidies</v>
       </c>
       <c r="B177" t="str">
         <f ca="1">VLOOKUP(A177,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>경쟁 상대, 경쟁자</v>
+        <v>보조금</v>
       </c>
       <c r="D177" t="s">
         <v>271</v>
@@ -9239,11 +9239,11 @@
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>express regret for</v>
+        <v>be subject to</v>
       </c>
       <c r="B178" t="str">
         <f ca="1">VLOOKUP(A178,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~을 사과하다</v>
+        <v>~의 대상이다</v>
       </c>
       <c r="D178" t="s">
         <v>295</v>
@@ -9255,11 +9255,11 @@
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>well-known</v>
+        <v>quality goods</v>
       </c>
       <c r="B179" t="str">
         <f ca="1">VLOOKUP(A179,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유명한, 잘 알려진</v>
+        <v>우수한 제품, 우량품</v>
       </c>
       <c r="D179" t="s">
         <v>238</v>
@@ -9271,11 +9271,11 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>tuition fee</v>
+        <v>even-numbered</v>
       </c>
       <c r="B180" t="str">
         <f ca="1">VLOOKUP(A180,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>수업료</v>
+        <v>짝수의</v>
       </c>
       <c r="D180" t="s">
         <v>38</v>
@@ -9287,11 +9287,11 @@
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>epidemic</v>
+        <v>work out</v>
       </c>
       <c r="B181" t="str">
         <f ca="1">VLOOKUP(A181,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유행, 전염병</v>
+        <v>운동하다</v>
       </c>
       <c r="D181" t="s">
         <v>139</v>
@@ -9303,11 +9303,11 @@
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>confidential</v>
+        <v>be subject to</v>
       </c>
       <c r="B182" t="str">
         <f ca="1">VLOOKUP(A182,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>기밀의, 비밀의</v>
+        <v>~의 대상이다</v>
       </c>
       <c r="D182" t="s">
         <v>245</v>
@@ -9319,11 +9319,11 @@
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>broadcast</v>
+        <v>restore</v>
       </c>
       <c r="B183" t="str">
         <f ca="1">VLOOKUP(A183,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>방송, 방송하다</v>
+        <v>복구하다, 복원하다</v>
       </c>
       <c r="D183" t="s">
         <v>350</v>
@@ -9335,11 +9335,11 @@
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>development</v>
+        <v>plumbing</v>
       </c>
       <c r="B184" t="str">
         <f ca="1">VLOOKUP(A184,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>개발</v>
+        <v>수도 시설</v>
       </c>
       <c r="D184" t="s">
         <v>344</v>
@@ -9351,781 +9351,781 @@
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>standout</v>
+        <v>soil</v>
       </c>
       <c r="B185" t="str">
         <f ca="1">VLOOKUP(A185,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>뛰어난 사람</v>
+        <v>토양</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>chef</v>
+        <v>witness</v>
       </c>
       <c r="B186" t="str">
         <f ca="1">VLOOKUP(A186,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>요리사</v>
+        <v>직접 보다, 목격하다</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>clinic</v>
+        <v>be based on</v>
       </c>
       <c r="B187" t="str">
         <f ca="1">VLOOKUP(A187,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>진료소</v>
+        <v>~에 바탕을 두다</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>give away</v>
+        <v>therapeutic</v>
       </c>
       <c r="B188" t="str">
         <f ca="1">VLOOKUP(A188,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>나눠주다</v>
+        <v>치료상의</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>be subject to</v>
+        <v>standout</v>
       </c>
       <c r="B189" t="str">
         <f ca="1">VLOOKUP(A189,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~의 대상이다</v>
+        <v>뛰어난 사람</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>plumbing</v>
+        <v>therapeutic</v>
       </c>
       <c r="B190" t="str">
         <f ca="1">VLOOKUP(A190,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>수도 시설</v>
+        <v>치료상의</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>record</v>
+        <v>restore</v>
       </c>
       <c r="B191" t="str">
         <f ca="1">VLOOKUP(A191,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>이력, 경력</v>
+        <v>복구하다, 복원하다</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>solid</v>
+        <v>compensation</v>
       </c>
       <c r="B192" t="str">
         <f ca="1">VLOOKUP(A192,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>내용이 충실한, 견고한</v>
+        <v>보상, 배상</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>causative</v>
+        <v>invite</v>
       </c>
       <c r="B193" t="str">
         <f ca="1">VLOOKUP(A193,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>야기시키는</v>
+        <v>요청하다, 초대하다</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>readily</v>
+        <v>lose weight</v>
       </c>
       <c r="B194" t="str">
         <f ca="1">VLOOKUP(A194,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>쉽게</v>
+        <v>체중을 감량하다</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>submit</v>
+        <v>postpone</v>
       </c>
       <c r="B195" t="str">
         <f ca="1">VLOOKUP(A195,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>제출하다</v>
+        <v>연기하다, 뒤로 미루다</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>intense</v>
+        <v>present</v>
       </c>
       <c r="B196" t="str">
         <f ca="1">VLOOKUP(A196,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>치열한</v>
+        <v>참석하다</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>evaluate</v>
+        <v>negatively</v>
       </c>
       <c r="B197" t="str">
         <f ca="1">VLOOKUP(A197,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>검토하다, 평가하다</v>
+        <v>부정적으로</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>historic site</v>
+        <v>forfeit</v>
       </c>
       <c r="B198" t="str">
         <f ca="1">VLOOKUP(A198,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유적지</v>
+        <v>취소당하다, 박탈당하다</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>temporary</v>
+        <v>incident</v>
       </c>
       <c r="B199" t="str">
         <f ca="1">VLOOKUP(A199,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>임시의, 일시적인</v>
+        <v>사고, 사건</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>sequel</v>
+        <v>tuition fee</v>
       </c>
       <c r="B200" t="str">
         <f ca="1">VLOOKUP(A200,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>속편</v>
+        <v>수업료</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>legitimate</v>
+        <v>throughout the country</v>
       </c>
       <c r="B201" t="str">
         <f ca="1">VLOOKUP(A201,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>타당한, 적당한</v>
+        <v>전국 각지의</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>production plant</v>
+        <v>intense</v>
       </c>
       <c r="B202" t="str">
         <f ca="1">VLOOKUP(A202,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>생산 공장</v>
+        <v>치열한</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>standout</v>
+        <v>issue</v>
       </c>
       <c r="B203" t="str">
         <f ca="1">VLOOKUP(A203,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>뛰어난 사람</v>
+        <v>발행물, 쟁점</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>rely on</v>
+        <v>taste</v>
       </c>
       <c r="B204" t="str">
         <f ca="1">VLOOKUP(A204,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~에 의지하다</v>
+        <v>시음하다</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>recruit</v>
+        <v>aid</v>
       </c>
       <c r="B205" t="str">
         <f ca="1">VLOOKUP(A205,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>모집하다</v>
+        <v>도와주다</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>push</v>
+        <v>keep abreast of</v>
       </c>
       <c r="B206" t="str">
         <f ca="1">VLOOKUP(A206,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>노력하다, 떠밀다</v>
+        <v>~의 정보를 계속 접하다</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>suspect</v>
+        <v>make up to</v>
       </c>
       <c r="B207" t="str">
         <f ca="1">VLOOKUP(A207,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>용의자</v>
+        <v>~에게 보상하다</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>go ahead</v>
+        <v>code of conduct</v>
       </c>
       <c r="B208" t="str">
         <f ca="1">VLOOKUP(A208,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>진행 시키다</v>
+        <v>행동 수칙</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>reliable</v>
+        <v>go ahead</v>
       </c>
       <c r="B209" t="str">
         <f ca="1">VLOOKUP(A209,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>믿을 만한</v>
+        <v>진행 시키다</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>in bulk</v>
+        <v>statistical</v>
       </c>
       <c r="B210" t="str">
         <f ca="1">VLOOKUP(A210,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>대량으로</v>
+        <v>통계의</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>normal</v>
+        <v>aid</v>
       </c>
       <c r="B211" t="str">
         <f ca="1">VLOOKUP(A211,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>보통의, 정상적인</v>
+        <v>도와주다</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>mandatory</v>
+        <v>invite</v>
       </c>
       <c r="B212" t="str">
         <f ca="1">VLOOKUP(A212,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>필수의, 의무의</v>
+        <v>요청하다, 초대하다</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>objective</v>
+        <v>evaluate</v>
       </c>
       <c r="B213" t="str">
         <f ca="1">VLOOKUP(A213,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>목표, 목적</v>
+        <v>검토하다, 평가하다</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>obey</v>
+        <v>instructive</v>
       </c>
       <c r="B214" t="str">
         <f ca="1">VLOOKUP(A214,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>지키다</v>
+        <v>유익한, 교육적인</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>critic</v>
+        <v>response</v>
       </c>
       <c r="B215" t="str">
         <f ca="1">VLOOKUP(A215,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>평론가, 비평가</v>
+        <v>대응, 반응</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>taste</v>
+        <v>disappear</v>
       </c>
       <c r="B216" t="str">
         <f ca="1">VLOOKUP(A216,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>시음하다</v>
+        <v>사라지다</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>presentation</v>
+        <v>research</v>
       </c>
       <c r="B217" t="str">
         <f ca="1">VLOOKUP(A217,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>발표</v>
+        <v>연구</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>generate</v>
+        <v>account</v>
       </c>
       <c r="B218" t="str">
         <f ca="1">VLOOKUP(A218,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>자아내다, 발생시키다</v>
+        <v>저서, 설명, 이야기</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>spot</v>
+        <v>incompatibility</v>
       </c>
       <c r="B219" t="str">
         <f ca="1">VLOOKUP(A219,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>발견하다, 찾아내다</v>
+        <v>호환성이 없음</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>bid</v>
+        <v>regulatory</v>
       </c>
       <c r="B220" t="str">
         <f ca="1">VLOOKUP(A220,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>입찰, 값을매기다</v>
+        <v>규제력을 지닌</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>crop</v>
+        <v>proposed</v>
       </c>
       <c r="B221" t="str">
         <f ca="1">VLOOKUP(A221,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>농작물</v>
+        <v>제안된</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>order</v>
+        <v>regard</v>
       </c>
       <c r="B222" t="str">
         <f ca="1">VLOOKUP(A222,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>주문</v>
+        <v>~을 ~으로 여기다</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>be subject to</v>
+        <v>confidential</v>
       </c>
       <c r="B223" t="str">
         <f ca="1">VLOOKUP(A223,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~의 대상이다</v>
+        <v>기밀의, 비밀의</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>dissolve</v>
+        <v>surcharge</v>
       </c>
       <c r="B224" t="str">
         <f ca="1">VLOOKUP(A224,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>용해하다, 녹다</v>
+        <v>추가 요금</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>medication</v>
+        <v>inessential</v>
       </c>
       <c r="B225" t="str">
         <f ca="1">VLOOKUP(A225,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>약</v>
+        <v>꼭 필요한 것이 아닌</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>throughout the country</v>
+        <v>eligibility</v>
       </c>
       <c r="B226" t="str">
         <f ca="1">VLOOKUP(A226,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>전국 각지의</v>
+        <v>적격성</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>soar</v>
+        <v>redemption</v>
       </c>
       <c r="B227" t="str">
         <f ca="1">VLOOKUP(A227,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>폭등하다, 날아오르다</v>
+        <v>구함, 현금화</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>over-the-counter</v>
+        <v>crop</v>
       </c>
       <c r="B228" t="str">
         <f ca="1">VLOOKUP(A228,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>처방전 없이 살 수 있는</v>
+        <v>농작물</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take shape</v>
+        <v>capitalism</v>
       </c>
       <c r="B229" t="str">
         <f ca="1">VLOOKUP(A229,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>구체화하다</v>
+        <v>자본주의</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>express regret for</v>
+        <v>presentation</v>
       </c>
       <c r="B230" t="str">
         <f ca="1">VLOOKUP(A230,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~을 사과하다</v>
+        <v>발표</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>studio</v>
+        <v>based in</v>
       </c>
       <c r="B231" t="str">
         <f ca="1">VLOOKUP(A231,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>영화사</v>
+        <v>~에 기반을 둔</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>tax policy</v>
+        <v>production plant</v>
       </c>
       <c r="B232" t="str">
         <f ca="1">VLOOKUP(A232,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>조세 정책</v>
+        <v>생산 공장</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>rural</v>
+        <v>be based on</v>
       </c>
       <c r="B233" t="str">
         <f ca="1">VLOOKUP(A233,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>지방의, 시골의</v>
+        <v>~에 바탕을 두다</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>release</v>
+        <v>invalid</v>
       </c>
       <c r="B234" t="str">
         <f ca="1">VLOOKUP(A234,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>양도하다, 놓아주다</v>
+        <v>근거 없는, 무효한</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>take A into consideration</v>
+        <v>invalid</v>
       </c>
       <c r="B235" t="str">
         <f ca="1">VLOOKUP(A235,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>A를 고려하다</v>
+        <v>근거 없는, 무효한</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>summons</v>
+        <v>manufacturer</v>
       </c>
       <c r="B236" t="str">
         <f ca="1">VLOOKUP(A236,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>소환, 호출</v>
+        <v>제조 회사</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>shutdown</v>
+        <v>lodging</v>
       </c>
       <c r="B237" t="str">
         <f ca="1">VLOOKUP(A237,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>휴업, 폐업</v>
+        <v>숙박, 하숙</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>broadcast</v>
+        <v>operating expense</v>
       </c>
       <c r="B238" t="str">
         <f ca="1">VLOOKUP(A238,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>방송, 방송하다</v>
+        <v>운영비</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>ballroom</v>
+        <v>operating expense</v>
       </c>
       <c r="B239" t="str">
         <f ca="1">VLOOKUP(A239,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>대연회장, 무도회장</v>
+        <v>운영비</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>recruit</v>
+        <v>athletics</v>
       </c>
       <c r="B240" t="str">
         <f ca="1">VLOOKUP(A240,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>모집하다</v>
+        <v>체육</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>suggest</v>
+        <v>discover</v>
       </c>
       <c r="B241" t="str">
         <f ca="1">VLOOKUP(A241,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>암시하다, 시사하다</v>
+        <v>밝히다, 발견하다</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>highly</v>
+        <v>therapeutic</v>
       </c>
       <c r="B242" t="str">
         <f ca="1">VLOOKUP(A242,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>매우</v>
+        <v>치료상의</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>retailer</v>
+        <v>suggest</v>
       </c>
       <c r="B243" t="str">
         <f ca="1">VLOOKUP(A243,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>소매상, 소매업자</v>
+        <v>암시하다, 시사하다</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>broadcast</v>
+        <v>result</v>
       </c>
       <c r="B244" t="str">
         <f ca="1">VLOOKUP(A244,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>방송, 방송하다</v>
+        <v>결과로서 생기다</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>contemporary</v>
+        <v>medication</v>
       </c>
       <c r="B245" t="str">
         <f ca="1">VLOOKUP(A245,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>현대적인</v>
+        <v>약</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>epidemic</v>
+        <v>sequel</v>
       </c>
       <c r="B246" t="str">
         <f ca="1">VLOOKUP(A246,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유행, 전염병</v>
+        <v>속편</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>solid</v>
+        <v>practitioner</v>
       </c>
       <c r="B247" t="str">
         <f ca="1">VLOOKUP(A247,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>내용이 충실한, 견고한</v>
+        <v>의사, 변호사</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>deserve</v>
+        <v>negatively</v>
       </c>
       <c r="B248" t="str">
         <f ca="1">VLOOKUP(A248,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~을 받을 만하다</v>
+        <v>부정적으로</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>production plant</v>
+        <v>shutdown</v>
       </c>
       <c r="B249" t="str">
         <f ca="1">VLOOKUP(A249,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>생산 공장</v>
+        <v>휴업, 폐업</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>claim</v>
+        <v>take steps</v>
       </c>
       <c r="B250" t="str">
         <f ca="1">VLOOKUP(A250,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>요청하다</v>
+        <v>조치를 취하다</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>taste</v>
+        <v>result</v>
       </c>
       <c r="B251" t="str">
         <f ca="1">VLOOKUP(A251,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>시음하다</v>
+        <v>결과로서 생기다</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>venue</v>
+        <v>forthcoming</v>
       </c>
       <c r="B252" t="str">
         <f ca="1">VLOOKUP(A252,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>(경기,회담 등의)장소</v>
+        <v>곧 있을, 준비된</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>release</v>
+        <v>clinic</v>
       </c>
       <c r="B253" t="str">
         <f ca="1">VLOOKUP(A253,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>양도하다, 놓아주다</v>
+        <v>진료소</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>instructive</v>
+        <v>undetermined</v>
       </c>
       <c r="B254" t="str">
         <f ca="1">VLOOKUP(A254,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>유익한, 교육적인</v>
+        <v>미확인의</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>regard</v>
+        <v>achieve</v>
       </c>
       <c r="B255" t="str">
         <f ca="1">VLOOKUP(A255,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~을 ~으로 여기다</v>
+        <v>이루다, 성취하다</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>development</v>
+        <v>organic</v>
       </c>
       <c r="B256" t="str">
         <f ca="1">VLOOKUP(A256,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>개발</v>
+        <v>유기농의</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>affect</v>
+        <v>improved</v>
       </c>
       <c r="B257" t="str">
         <f ca="1">VLOOKUP(A257,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>영향을 미치다</v>
+        <v>개선된</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>objective</v>
+        <v>workstation</v>
       </c>
       <c r="B258" t="str">
         <f ca="1">VLOOKUP(A258,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>목표, 목적</v>
+        <v>작업 장소</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>the number of</v>
+        <v>exclude</v>
       </c>
       <c r="B259" t="str">
         <f ca="1">VLOOKUP(A259,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>~의 수</v>
+        <v>제외하다</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>blood circulation</v>
+        <v>due</v>
       </c>
       <c r="B260" t="str">
         <f ca="1">VLOOKUP(A260,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>혈액 순환</v>
+        <v>기한인, ~할 예정인</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>consumer spending</v>
+        <v>push</v>
       </c>
       <c r="B261" t="str">
         <f ca="1">VLOOKUP(A261,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>소비자 지출</v>
+        <v>노력하다, 떠밀다</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f ca="1">INDEX(DB!$A$1:$A$300,RANDBETWEEN(1,300),1)</f>
-        <v>eligibility</v>
+        <v>diagnosis</v>
       </c>
       <c r="B262" t="str">
         <f ca="1">VLOOKUP(A262,DB!$A$1:$B$300,2,FALSE)</f>
-        <v>적격성</v>
+        <v>진단</v>
       </c>
     </row>
   </sheetData>
@@ -10139,7 +10139,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10179,10 +10179,7 @@
         <f>시트2!D1</f>
         <v>acquired</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <f>시트2!E1</f>
-        <v>획득한, 후천적인</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>26</v>
@@ -10191,10 +10188,7 @@
         <f>시트2!D26</f>
         <v>adherence</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f>시트2!E26</f>
-        <v>충실, 고수</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -10204,10 +10198,7 @@
         <f>시트2!D2</f>
         <v>precaution</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f>시트2!E2</f>
-        <v>예방 조치</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
         <v>27</v>
@@ -10216,10 +10207,7 @@
         <f>시트2!D27</f>
         <v>confirm</v>
       </c>
-      <c r="G4" s="2" t="str">
-        <f>시트2!E27</f>
-        <v>확인하다, 확정짓다</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -10229,10 +10217,7 @@
         <f>시트2!D3</f>
         <v>garment</v>
       </c>
-      <c r="C5" s="2" t="str">
-        <f>시트2!E3</f>
-        <v>의복, 옷</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>28</v>
@@ -10241,10 +10226,7 @@
         <f>시트2!D28</f>
         <v>plumbing</v>
       </c>
-      <c r="G5" s="2" t="str">
-        <f>시트2!E28</f>
-        <v>수도 시설</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -10254,10 +10236,7 @@
         <f>시트2!D4</f>
         <v>subsidies</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f>시트2!E4</f>
-        <v>보조금</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>29</v>
@@ -10266,10 +10245,7 @@
         <f>시트2!D29</f>
         <v>middle class</v>
       </c>
-      <c r="G6" s="2" t="str">
-        <f>시트2!E29</f>
-        <v>중산층</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -10279,10 +10255,7 @@
         <f>시트2!D5</f>
         <v>option</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f>시트2!E5</f>
-        <v>방안, 선택</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>30</v>
@@ -10291,10 +10264,7 @@
         <f>시트2!D30</f>
         <v>generate</v>
       </c>
-      <c r="G7" s="2" t="str">
-        <f>시트2!E30</f>
-        <v>자아내다, 발생시키다</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -10304,10 +10274,7 @@
         <f>시트2!D6</f>
         <v>recruit</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <f>시트2!E6</f>
-        <v>모집하다</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
         <v>31</v>
@@ -10316,10 +10283,7 @@
         <f>시트2!D31</f>
         <v>athletics</v>
       </c>
-      <c r="G8" s="2" t="str">
-        <f>시트2!E31</f>
-        <v>체육</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -10329,10 +10293,7 @@
         <f>시트2!D7</f>
         <v>multinational</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <f>시트2!E7</f>
-        <v>다국적의</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
         <v>32</v>
@@ -10341,10 +10302,7 @@
         <f>시트2!D32</f>
         <v>satisfy</v>
       </c>
-      <c r="G9" s="2" t="str">
-        <f>시트2!E32</f>
-        <v>충족시키다</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -10354,10 +10312,7 @@
         <f>시트2!D8</f>
         <v>critic</v>
       </c>
-      <c r="C10" s="2" t="str">
-        <f>시트2!E8</f>
-        <v>평론가, 비평가</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
         <v>33</v>
@@ -10366,10 +10321,7 @@
         <f>시트2!D33</f>
         <v>fledgling</v>
       </c>
-      <c r="G10" s="2" t="str">
-        <f>시트2!E33</f>
-        <v>신생의, 미숙한</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -10379,10 +10331,7 @@
         <f>시트2!D9</f>
         <v>occur</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <f>시트2!E9</f>
-        <v>발생하다</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>34</v>
@@ -10391,10 +10340,7 @@
         <f>시트2!D34</f>
         <v>regular customer</v>
       </c>
-      <c r="G11" s="2" t="str">
-        <f>시트2!E34</f>
-        <v>단골 고객</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -10404,10 +10350,7 @@
         <f>시트2!D10</f>
         <v>hectic</v>
       </c>
-      <c r="C12" s="2" t="str">
-        <f>시트2!E10</f>
-        <v>정신 없이 바쁜</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
         <v>35</v>
@@ -10416,10 +10359,7 @@
         <f>시트2!D35</f>
         <v>discover</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f>시트2!E35</f>
-        <v>밝히다, 발견하다</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -10429,10 +10369,7 @@
         <f>시트2!D11</f>
         <v>rely on</v>
       </c>
-      <c r="C13" s="2" t="str">
-        <f>시트2!E11</f>
-        <v>~에 의지하다</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>36</v>
@@ -10441,10 +10378,7 @@
         <f>시트2!D36</f>
         <v>retail outlet</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f>시트2!E36</f>
-        <v>소매 판매점</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -10454,10 +10388,7 @@
         <f>시트2!D12</f>
         <v>claim</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <f>시트2!E12</f>
-        <v>요청하다</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
         <v>37</v>
@@ -10466,10 +10397,7 @@
         <f>시트2!D37</f>
         <v>disappear</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f>시트2!E37</f>
-        <v>사라지다</v>
-      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -10479,10 +10407,7 @@
         <f>시트2!D13</f>
         <v>cut into</v>
       </c>
-      <c r="C15" s="2" t="str">
-        <f>시트2!E13</f>
-        <v>~을 줄이다</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
         <v>38</v>
@@ -10491,10 +10416,7 @@
         <f>시트2!D38</f>
         <v>deliver</v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f>시트2!E38</f>
-        <v>전달하다</v>
-      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -10504,10 +10426,7 @@
         <f>시트2!D14</f>
         <v>public relations department</v>
       </c>
-      <c r="C16" s="2" t="str">
-        <f>시트2!E14</f>
-        <v>홍보부</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2">
         <v>39</v>
@@ -10516,10 +10435,7 @@
         <f>시트2!D39</f>
         <v>solid</v>
       </c>
-      <c r="G16" s="2" t="str">
-        <f>시트2!E39</f>
-        <v>내용이 충실한, 견고한</v>
-      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -10529,10 +10445,7 @@
         <f>시트2!D15</f>
         <v>reiterate</v>
       </c>
-      <c r="C17" s="2" t="str">
-        <f>시트2!E15</f>
-        <v>되풀이하다</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2">
         <v>40</v>
@@ -10541,10 +10454,7 @@
         <f>시트2!D40</f>
         <v>dissolve</v>
       </c>
-      <c r="G17" s="2" t="str">
-        <f>시트2!E40</f>
-        <v>용해하다, 녹다</v>
-      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -10554,10 +10464,7 @@
         <f>시트2!D16</f>
         <v>design</v>
       </c>
-      <c r="C18" s="2" t="str">
-        <f>시트2!E16</f>
-        <v>설계하다, 고안하다</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2">
         <v>41</v>
@@ -10566,10 +10473,7 @@
         <f>시트2!D41</f>
         <v>difficulties</v>
       </c>
-      <c r="G18" s="2" t="str">
-        <f>시트2!E41</f>
-        <v>곤란, 말썽</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -10579,10 +10483,7 @@
         <f>시트2!D17</f>
         <v>recruiter</v>
       </c>
-      <c r="C19" s="2" t="str">
-        <f>시트2!E17</f>
-        <v>인사 담당자</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2">
         <v>42</v>
@@ -10591,10 +10492,7 @@
         <f>시트2!D42</f>
         <v>result</v>
       </c>
-      <c r="G19" s="2" t="str">
-        <f>시트2!E42</f>
-        <v>결과로서 생기다</v>
-      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -10604,10 +10502,7 @@
         <f>시트2!D18</f>
         <v>breakdown</v>
       </c>
-      <c r="C20" s="2" t="str">
-        <f>시트2!E18</f>
-        <v>고장, 파손</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>43</v>
@@ -10616,10 +10511,7 @@
         <f>시트2!D43</f>
         <v>challenging</v>
       </c>
-      <c r="G20" s="2" t="str">
-        <f>시트2!E43</f>
-        <v>힘든, 도전적인</v>
-      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -10629,10 +10521,7 @@
         <f>시트2!D19</f>
         <v>observe</v>
       </c>
-      <c r="C21" s="2" t="str">
-        <f>시트2!E19</f>
-        <v>발견하다, 목격하다</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
         <v>44</v>
@@ -10641,10 +10530,7 @@
         <f>시트2!D44</f>
         <v>elevate</v>
       </c>
-      <c r="G21" s="2" t="str">
-        <f>시트2!E44</f>
-        <v>높이다</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -10654,10 +10540,7 @@
         <f>시트2!D20</f>
         <v>objective</v>
       </c>
-      <c r="C22" s="2" t="str">
-        <f>시트2!E20</f>
-        <v>목표, 목적</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
         <v>45</v>
@@ -10666,10 +10549,7 @@
         <f>시트2!D45</f>
         <v>invite</v>
       </c>
-      <c r="G22" s="2" t="str">
-        <f>시트2!E45</f>
-        <v>요청하다, 초대하다</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -10679,10 +10559,7 @@
         <f>시트2!D21</f>
         <v>metabolism</v>
       </c>
-      <c r="C23" s="2" t="str">
-        <f>시트2!E21</f>
-        <v>신진대사</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
         <v>46</v>
@@ -10691,10 +10568,7 @@
         <f>시트2!D46</f>
         <v>epidemic</v>
       </c>
-      <c r="G23" s="2" t="str">
-        <f>시트2!E46</f>
-        <v>유행, 전염병</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -10704,10 +10578,7 @@
         <f>시트2!D22</f>
         <v>exempt</v>
       </c>
-      <c r="C24" s="2" t="str">
-        <f>시트2!E22</f>
-        <v>면제하다</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2">
         <v>47</v>
@@ -10716,10 +10587,7 @@
         <f>시트2!D47</f>
         <v>form</v>
       </c>
-      <c r="G24" s="2" t="str">
-        <f>시트2!E47</f>
-        <v>구성하다</v>
-      </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -10729,10 +10597,7 @@
         <f>시트2!D23</f>
         <v>make up to</v>
       </c>
-      <c r="C25" s="2" t="str">
-        <f>시트2!E23</f>
-        <v>~에게 보상하다</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
         <v>48</v>
@@ -10741,10 +10606,7 @@
         <f>시트2!D48</f>
         <v>work</v>
       </c>
-      <c r="G25" s="2" t="str">
-        <f>시트2!E48</f>
-        <v>일, 수고</v>
-      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -10754,10 +10616,7 @@
         <f>시트2!D24</f>
         <v>sequel</v>
       </c>
-      <c r="C26" s="2" t="str">
-        <f>시트2!E24</f>
-        <v>속편</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
         <v>49</v>
@@ -10766,10 +10625,7 @@
         <f>시트2!D49</f>
         <v>incident</v>
       </c>
-      <c r="G26" s="2" t="str">
-        <f>시트2!E49</f>
-        <v>사고, 사건</v>
-      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -10779,10 +10635,7 @@
         <f>시트2!D25</f>
         <v>bring together</v>
       </c>
-      <c r="C27" s="3" t="str">
-        <f>시트2!E25</f>
-        <v>모으다, 합치다</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3">
         <v>50</v>
@@ -10791,10 +10644,7 @@
         <f>시트2!D50</f>
         <v>proposed</v>
       </c>
-      <c r="G27" s="2" t="str">
-        <f>시트2!E50</f>
-        <v>제안된</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -10818,10 +10668,7 @@
       <c r="A30" s="4">
         <v>51</v>
       </c>
-      <c r="B30" s="4" t="str">
-        <f>시트2!D26</f>
-        <v>adherence</v>
-      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4" t="str">
         <f>시트2!E26</f>
         <v>충실, 고수</v>
@@ -10830,10 +10677,7 @@
       <c r="E30" s="4">
         <v>76</v>
       </c>
-      <c r="F30" s="4" t="str">
-        <f>시트2!D51</f>
-        <v>grade point average</v>
-      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4" t="str">
         <f>시트2!E51</f>
         <v>평균 평점(GPA)</v>
@@ -10843,10 +10687,7 @@
       <c r="A31" s="2">
         <v>52</v>
       </c>
-      <c r="B31" s="2" t="str">
-        <f>시트2!D27</f>
-        <v>confirm</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="str">
         <f>시트2!E27</f>
         <v>확인하다, 확정짓다</v>
@@ -10855,10 +10696,7 @@
       <c r="E31" s="2">
         <v>77</v>
       </c>
-      <c r="F31" s="2" t="str">
-        <f>시트2!D52</f>
-        <v>causative</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="str">
         <f>시트2!E52</f>
         <v>야기시키는</v>
@@ -10868,10 +10706,7 @@
       <c r="A32" s="4">
         <v>53</v>
       </c>
-      <c r="B32" s="2" t="str">
-        <f>시트2!D28</f>
-        <v>plumbing</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="str">
         <f>시트2!E28</f>
         <v>수도 시설</v>
@@ -10880,10 +10715,7 @@
       <c r="E32" s="4">
         <v>78</v>
       </c>
-      <c r="F32" s="2" t="str">
-        <f>시트2!D53</f>
-        <v>soil</v>
-      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2" t="str">
         <f>시트2!E53</f>
         <v>토양</v>
@@ -10893,10 +10725,7 @@
       <c r="A33" s="2">
         <v>54</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f>시트2!D29</f>
-        <v>middle class</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="str">
         <f>시트2!E29</f>
         <v>중산층</v>
@@ -10905,10 +10734,7 @@
       <c r="E33" s="2">
         <v>79</v>
       </c>
-      <c r="F33" s="2" t="str">
-        <f>시트2!D54</f>
-        <v>regard</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="str">
         <f>시트2!E54</f>
         <v>~을 ~으로 여기다</v>
@@ -10918,10 +10744,7 @@
       <c r="A34" s="4">
         <v>55</v>
       </c>
-      <c r="B34" s="2" t="str">
-        <f>시트2!D30</f>
-        <v>generate</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="str">
         <f>시트2!E30</f>
         <v>자아내다, 발생시키다</v>
@@ -10930,10 +10753,7 @@
       <c r="E34" s="4">
         <v>80</v>
       </c>
-      <c r="F34" s="2" t="str">
-        <f>시트2!D55</f>
-        <v>enclose</v>
-      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="str">
         <f>시트2!E55</f>
         <v>동봉하다</v>
@@ -10943,10 +10763,7 @@
       <c r="A35" s="2">
         <v>56</v>
       </c>
-      <c r="B35" s="2" t="str">
-        <f>시트2!D31</f>
-        <v>athletics</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2" t="str">
         <f>시트2!E31</f>
         <v>체육</v>
@@ -10955,10 +10772,7 @@
       <c r="E35" s="2">
         <v>81</v>
       </c>
-      <c r="F35" s="2" t="str">
-        <f>시트2!D56</f>
-        <v>present</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2" t="str">
         <f>시트2!E56</f>
         <v>참석하다</v>
@@ -10968,10 +10782,7 @@
       <c r="A36" s="4">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="str">
-        <f>시트2!D32</f>
-        <v>satisfy</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="str">
         <f>시트2!E32</f>
         <v>충족시키다</v>
@@ -10980,10 +10791,7 @@
       <c r="E36" s="4">
         <v>82</v>
       </c>
-      <c r="F36" s="2" t="str">
-        <f>시트2!D57</f>
-        <v>obtainent</v>
-      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="2" t="str">
         <f>시트2!E57</f>
         <v>입수, 획득</v>
@@ -10993,10 +10801,7 @@
       <c r="A37" s="2">
         <v>58</v>
       </c>
-      <c r="B37" s="2" t="str">
-        <f>시트2!D33</f>
-        <v>fledgling</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2" t="str">
         <f>시트2!E33</f>
         <v>신생의, 미숙한</v>
@@ -11005,10 +10810,7 @@
       <c r="E37" s="2">
         <v>83</v>
       </c>
-      <c r="F37" s="2" t="str">
-        <f>시트2!D58</f>
-        <v>print</v>
-      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2" t="str">
         <f>시트2!E58</f>
         <v>게재하다, 인쇄하다</v>
@@ -11018,10 +10820,7 @@
       <c r="A38" s="4">
         <v>59</v>
       </c>
-      <c r="B38" s="2" t="str">
-        <f>시트2!D34</f>
-        <v>regular customer</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="str">
         <f>시트2!E34</f>
         <v>단골 고객</v>
@@ -11030,10 +10829,7 @@
       <c r="E38" s="4">
         <v>84</v>
       </c>
-      <c r="F38" s="2" t="str">
-        <f>시트2!D59</f>
-        <v>instructive</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="str">
         <f>시트2!E59</f>
         <v>유익한, 교육적인</v>
@@ -11043,10 +10839,7 @@
       <c r="A39" s="2">
         <v>60</v>
       </c>
-      <c r="B39" s="2" t="str">
-        <f>시트2!D35</f>
-        <v>discover</v>
-      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2" t="str">
         <f>시트2!E35</f>
         <v>밝히다, 발견하다</v>
@@ -11055,10 +10848,7 @@
       <c r="E39" s="2">
         <v>85</v>
       </c>
-      <c r="F39" s="2" t="str">
-        <f>시트2!D60</f>
-        <v>keen</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="str">
         <f>시트2!E60</f>
         <v>예리한</v>
@@ -11068,10 +10858,7 @@
       <c r="A40" s="4">
         <v>61</v>
       </c>
-      <c r="B40" s="2" t="str">
-        <f>시트2!D36</f>
-        <v>retail outlet</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2" t="str">
         <f>시트2!E36</f>
         <v>소매 판매점</v>
@@ -11080,10 +10867,7 @@
       <c r="E40" s="4">
         <v>86</v>
       </c>
-      <c r="F40" s="2" t="str">
-        <f>시트2!D61</f>
-        <v>contraction</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2" t="str">
         <f>시트2!E61</f>
         <v>수축, 축소</v>
@@ -11093,10 +10877,7 @@
       <c r="A41" s="2">
         <v>62</v>
       </c>
-      <c r="B41" s="2" t="str">
-        <f>시트2!D37</f>
-        <v>disappear</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2" t="str">
         <f>시트2!E37</f>
         <v>사라지다</v>
@@ -11105,10 +10886,7 @@
       <c r="E41" s="2">
         <v>87</v>
       </c>
-      <c r="F41" s="2" t="str">
-        <f>시트2!D62</f>
-        <v>documentation</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2" t="str">
         <f>시트2!E62</f>
         <v>문서화, 서류</v>
@@ -11118,10 +10896,7 @@
       <c r="A42" s="4">
         <v>63</v>
       </c>
-      <c r="B42" s="2" t="str">
-        <f>시트2!D38</f>
-        <v>deliver</v>
-      </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2" t="str">
         <f>시트2!E38</f>
         <v>전달하다</v>
@@ -11130,10 +10905,7 @@
       <c r="E42" s="4">
         <v>88</v>
       </c>
-      <c r="F42" s="2" t="str">
-        <f>시트2!D63</f>
-        <v>postpone</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2" t="str">
         <f>시트2!E63</f>
         <v>연기하다, 뒤로 미루다</v>
@@ -11143,10 +10915,7 @@
       <c r="A43" s="2">
         <v>64</v>
       </c>
-      <c r="B43" s="2" t="str">
-        <f>시트2!D39</f>
-        <v>solid</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2" t="str">
         <f>시트2!E39</f>
         <v>내용이 충실한, 견고한</v>
@@ -11155,10 +10924,7 @@
       <c r="E43" s="2">
         <v>89</v>
       </c>
-      <c r="F43" s="2" t="str">
-        <f>시트2!D64</f>
-        <v>archeological</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2" t="str">
         <f>시트2!E64</f>
         <v>고고학의</v>
@@ -11168,10 +10934,7 @@
       <c r="A44" s="4">
         <v>65</v>
       </c>
-      <c r="B44" s="2" t="str">
-        <f>시트2!D40</f>
-        <v>dissolve</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2" t="str">
         <f>시트2!E40</f>
         <v>용해하다, 녹다</v>
@@ -11180,10 +10943,7 @@
       <c r="E44" s="4">
         <v>90</v>
       </c>
-      <c r="F44" s="2" t="str">
-        <f>시트2!D65</f>
-        <v>deserve</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="str">
         <f>시트2!E65</f>
         <v>~을 받을 만하다</v>
@@ -11193,10 +10953,7 @@
       <c r="A45" s="2">
         <v>66</v>
       </c>
-      <c r="B45" s="2" t="str">
-        <f>시트2!D41</f>
-        <v>difficulties</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2" t="str">
         <f>시트2!E41</f>
         <v>곤란, 말썽</v>
@@ -11205,10 +10962,7 @@
       <c r="E45" s="2">
         <v>91</v>
       </c>
-      <c r="F45" s="2" t="str">
-        <f>시트2!D66</f>
-        <v>in response to</v>
-      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2" t="str">
         <f>시트2!E66</f>
         <v>~에 대응하여</v>
@@ -11218,10 +10972,7 @@
       <c r="A46" s="4">
         <v>67</v>
       </c>
-      <c r="B46" s="2" t="str">
-        <f>시트2!D42</f>
-        <v>result</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2" t="str">
         <f>시트2!E42</f>
         <v>결과로서 생기다</v>
@@ -11230,10 +10981,7 @@
       <c r="E46" s="4">
         <v>92</v>
       </c>
-      <c r="F46" s="2" t="str">
-        <f>시트2!D67</f>
-        <v>research</v>
-      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2" t="str">
         <f>시트2!E67</f>
         <v>연구</v>
@@ -11243,10 +10991,7 @@
       <c r="A47" s="2">
         <v>68</v>
       </c>
-      <c r="B47" s="2" t="str">
-        <f>시트2!D43</f>
-        <v>challenging</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2" t="str">
         <f>시트2!E43</f>
         <v>힘든, 도전적인</v>
@@ -11255,10 +11000,7 @@
       <c r="E47" s="2">
         <v>93</v>
       </c>
-      <c r="F47" s="2" t="str">
-        <f>시트2!D68</f>
-        <v>give away</v>
-      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2" t="str">
         <f>시트2!E68</f>
         <v>나눠주다</v>
@@ -11268,10 +11010,7 @@
       <c r="A48" s="4">
         <v>69</v>
       </c>
-      <c r="B48" s="2" t="str">
-        <f>시트2!D44</f>
-        <v>elevate</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2" t="str">
         <f>시트2!E44</f>
         <v>높이다</v>
@@ -11280,10 +11019,7 @@
       <c r="E48" s="4">
         <v>94</v>
       </c>
-      <c r="F48" s="2" t="str">
-        <f>시트2!D69</f>
-        <v>clinic</v>
-      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="str">
         <f>시트2!E69</f>
         <v>진료소</v>
@@ -11293,10 +11029,7 @@
       <c r="A49" s="2">
         <v>70</v>
       </c>
-      <c r="B49" s="2" t="str">
-        <f>시트2!D45</f>
-        <v>invite</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2" t="str">
         <f>시트2!E45</f>
         <v>요청하다, 초대하다</v>
@@ -11305,10 +11038,7 @@
       <c r="E49" s="2">
         <v>95</v>
       </c>
-      <c r="F49" s="2" t="str">
-        <f>시트2!D70</f>
-        <v>sensible</v>
-      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2" t="str">
         <f>시트2!E70</f>
         <v>현명한, 합리적인</v>
@@ -11318,10 +11048,7 @@
       <c r="A50" s="4">
         <v>71</v>
       </c>
-      <c r="B50" s="2" t="str">
-        <f>시트2!D46</f>
-        <v>epidemic</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="str">
         <f>시트2!E46</f>
         <v>유행, 전염병</v>
@@ -11330,10 +11057,7 @@
       <c r="E50" s="4">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="str">
-        <f>시트2!D71</f>
-        <v>summons</v>
-      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2" t="str">
         <f>시트2!E71</f>
         <v>소환, 호출</v>
@@ -11343,10 +11067,7 @@
       <c r="A51" s="2">
         <v>72</v>
       </c>
-      <c r="B51" s="2" t="str">
-        <f>시트2!D47</f>
-        <v>form</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="str">
         <f>시트2!E47</f>
         <v>구성하다</v>
@@ -11355,10 +11076,7 @@
       <c r="E51" s="2">
         <v>97</v>
       </c>
-      <c r="F51" s="2" t="str">
-        <f>시트2!D72</f>
-        <v>acquirement</v>
-      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2" t="str">
         <f>시트2!E72</f>
         <v>취득, 획득</v>
@@ -11368,10 +11086,7 @@
       <c r="A52" s="4">
         <v>73</v>
       </c>
-      <c r="B52" s="2" t="str">
-        <f>시트2!D48</f>
-        <v>work</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="str">
         <f>시트2!E48</f>
         <v>일, 수고</v>
@@ -11380,10 +11095,7 @@
       <c r="E52" s="4">
         <v>98</v>
       </c>
-      <c r="F52" s="2" t="str">
-        <f>시트2!D73</f>
-        <v>renowned</v>
-      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2" t="str">
         <f>시트2!E73</f>
         <v>유명한, 명성 있는</v>
@@ -11393,10 +11105,7 @@
       <c r="A53" s="2">
         <v>74</v>
       </c>
-      <c r="B53" s="2" t="str">
-        <f>시트2!D49</f>
-        <v>incident</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2" t="str">
         <f>시트2!E49</f>
         <v>사고, 사건</v>
@@ -11405,10 +11114,7 @@
       <c r="E53" s="2">
         <v>99</v>
       </c>
-      <c r="F53" s="2" t="str">
-        <f>시트2!D74</f>
-        <v>tax policy</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2" t="str">
         <f>시트2!E74</f>
         <v>조세 정책</v>
@@ -11418,10 +11124,7 @@
       <c r="A54" s="4">
         <v>75</v>
       </c>
-      <c r="B54" s="2" t="str">
-        <f>시트2!D50</f>
-        <v>proposed</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2" t="str">
         <f>시트2!E50</f>
         <v>제안된</v>
@@ -11430,10 +11133,7 @@
       <c r="E54" s="4">
         <v>100</v>
       </c>
-      <c r="F54" s="2" t="str">
-        <f>시트2!D75</f>
-        <v>affect</v>
-      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2" t="str">
         <f>시트2!E75</f>
         <v>영향을 미치다</v>
